--- a/natmiOut/OldD4/LR-pairs_lrc2p/Cxcl12-Itga5.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Cxcl12-Itga5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itga5</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>148.476719185462</v>
+        <v>157.1060946666667</v>
       </c>
       <c r="H2">
-        <v>148.476719185462</v>
+        <v>471.318284</v>
       </c>
       <c r="I2">
-        <v>0.2389459218736932</v>
+        <v>0.2254482030285327</v>
       </c>
       <c r="J2">
-        <v>0.2389459218736932</v>
+        <v>0.2358911900507825</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.9904444842906</v>
+        <v>33.211442</v>
       </c>
       <c r="N2">
-        <v>25.9904444842906</v>
+        <v>99.634326</v>
       </c>
       <c r="O2">
-        <v>0.1889815626272723</v>
+        <v>0.211580186305583</v>
       </c>
       <c r="P2">
-        <v>0.1889815626272723</v>
+        <v>0.2175281749633597</v>
       </c>
       <c r="Q2">
-        <v>3858.975927199355</v>
+        <v>5217.71995086851</v>
       </c>
       <c r="R2">
-        <v>3858.975927199355</v>
+        <v>46959.47955781659</v>
       </c>
       <c r="S2">
-        <v>0.04515637369910467</v>
+        <v>0.04770037279903584</v>
       </c>
       <c r="T2">
-        <v>0.04515637369910467</v>
+        <v>0.05131298006168174</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>148.476719185462</v>
+        <v>157.1060946666667</v>
       </c>
       <c r="H3">
-        <v>148.476719185462</v>
+        <v>471.318284</v>
       </c>
       <c r="I3">
-        <v>0.2389459218736932</v>
+        <v>0.2254482030285327</v>
       </c>
       <c r="J3">
-        <v>0.2389459218736932</v>
+        <v>0.2358911900507825</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.7431270360019</v>
+        <v>51.17424933333334</v>
       </c>
       <c r="N3">
-        <v>46.7431270360019</v>
+        <v>153.522748</v>
       </c>
       <c r="O3">
-        <v>0.339878342391875</v>
+        <v>0.3260158715178649</v>
       </c>
       <c r="P3">
-        <v>0.339878342391875</v>
+        <v>0.3351809012869699</v>
       </c>
       <c r="Q3">
-        <v>6940.266146774831</v>
+        <v>8039.786460258271</v>
       </c>
       <c r="R3">
-        <v>6940.266146774831</v>
+        <v>72358.07814232443</v>
       </c>
       <c r="S3">
-        <v>0.08121254384772932</v>
+        <v>0.07349969239248363</v>
       </c>
       <c r="T3">
-        <v>0.08121254384772932</v>
+        <v>0.07906622168687717</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>148.476719185462</v>
+        <v>157.1060946666667</v>
       </c>
       <c r="H4">
-        <v>148.476719185462</v>
+        <v>471.318284</v>
       </c>
       <c r="I4">
-        <v>0.2389459218736932</v>
+        <v>0.2254482030285327</v>
       </c>
       <c r="J4">
-        <v>0.2389459218736932</v>
+        <v>0.2358911900507825</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.5985642891658</v>
+        <v>22.19450366666666</v>
       </c>
       <c r="N4">
-        <v>20.5985642891658</v>
+        <v>66.58351099999999</v>
       </c>
       <c r="O4">
-        <v>0.149776155986781</v>
+        <v>0.1413945597650736</v>
       </c>
       <c r="P4">
-        <v>0.149776155986781</v>
+        <v>0.1453694746776606</v>
       </c>
       <c r="Q4">
-        <v>3058.407245586156</v>
+        <v>3486.891794135013</v>
       </c>
       <c r="R4">
-        <v>3058.407245586156</v>
+        <v>31382.02614721512</v>
       </c>
       <c r="S4">
-        <v>0.03578840166695946</v>
+        <v>0.03187714941704632</v>
       </c>
       <c r="T4">
-        <v>0.03578840166695946</v>
+        <v>0.03429137837877044</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>148.476719185462</v>
+        <v>157.1060946666667</v>
       </c>
       <c r="H5">
-        <v>148.476719185462</v>
+        <v>471.318284</v>
       </c>
       <c r="I5">
-        <v>0.2389459218736932</v>
+        <v>0.2254482030285327</v>
       </c>
       <c r="J5">
-        <v>0.2389459218736932</v>
+        <v>0.2358911900507825</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.9151333062663</v>
+        <v>37.51216133333333</v>
       </c>
       <c r="N5">
-        <v>33.9151333062663</v>
+        <v>112.536484</v>
       </c>
       <c r="O5">
-        <v>0.2466035120255234</v>
+        <v>0.2389787857941174</v>
       </c>
       <c r="P5">
-        <v>0.2466035120255234</v>
+        <v>0.2456970098971044</v>
       </c>
       <c r="Q5">
-        <v>5035.607724052011</v>
+        <v>5893.389169585939</v>
       </c>
       <c r="R5">
-        <v>5035.607724052011</v>
+        <v>53040.50252627346</v>
       </c>
       <c r="S5">
-        <v>0.05892490351822906</v>
+        <v>0.05387733781922439</v>
       </c>
       <c r="T5">
-        <v>0.05892490351822906</v>
+        <v>0.05795776005654683</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>148.476719185462</v>
+        <v>157.1060946666667</v>
       </c>
       <c r="H6">
-        <v>148.476719185462</v>
+        <v>471.318284</v>
       </c>
       <c r="I6">
-        <v>0.2389459218736932</v>
+        <v>0.2254482030285327</v>
       </c>
       <c r="J6">
-        <v>0.2389459218736932</v>
+        <v>0.2358911900507825</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.2817264273563</v>
+        <v>12.8762265</v>
       </c>
       <c r="N6">
-        <v>10.2817264273563</v>
+        <v>25.752453</v>
       </c>
       <c r="O6">
-        <v>0.07476042696854827</v>
+        <v>0.08203059661736112</v>
       </c>
       <c r="P6">
-        <v>0.07476042696854827</v>
+        <v>0.05622443917490542</v>
       </c>
       <c r="Q6">
-        <v>1526.597007496325</v>
+        <v>2022.933659458442</v>
       </c>
       <c r="R6">
-        <v>1526.597007496325</v>
+        <v>12137.60195675065</v>
       </c>
       <c r="S6">
-        <v>0.01786369914167068</v>
+        <v>0.0184936506007425</v>
       </c>
       <c r="T6">
-        <v>0.01786369914167068</v>
+        <v>0.01326284986690627</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>391.450386706388</v>
+        <v>446.6683856666667</v>
       </c>
       <c r="H7">
-        <v>391.450386706388</v>
+        <v>1340.005157</v>
       </c>
       <c r="I7">
-        <v>0.6299672705088303</v>
+        <v>0.6409718547957218</v>
       </c>
       <c r="J7">
-        <v>0.6299672705088303</v>
+        <v>0.6706623143839581</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.9904444842906</v>
+        <v>33.211442</v>
       </c>
       <c r="N7">
-        <v>25.9904444842906</v>
+        <v>99.634326</v>
       </c>
       <c r="O7">
-        <v>0.1889815626272723</v>
+        <v>0.211580186305583</v>
       </c>
       <c r="P7">
-        <v>0.1889815626272723</v>
+        <v>0.2175281749633597</v>
       </c>
       <c r="Q7">
-        <v>10173.96954404646</v>
+        <v>14834.50118380213</v>
       </c>
       <c r="R7">
-        <v>10173.96954404646</v>
+        <v>133510.5106542192</v>
       </c>
       <c r="S7">
-        <v>0.1190521991847963</v>
+        <v>0.1356169444543139</v>
       </c>
       <c r="T7">
-        <v>0.1190521991847963</v>
+        <v>0.1458879492646454</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>391.450386706388</v>
+        <v>446.6683856666667</v>
       </c>
       <c r="H8">
-        <v>391.450386706388</v>
+        <v>1340.005157</v>
       </c>
       <c r="I8">
-        <v>0.6299672705088303</v>
+        <v>0.6409718547957218</v>
       </c>
       <c r="J8">
-        <v>0.6299672705088303</v>
+        <v>0.6706623143839581</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>46.7431270360019</v>
+        <v>51.17424933333334</v>
       </c>
       <c r="N8">
-        <v>46.7431270360019</v>
+        <v>153.522748</v>
       </c>
       <c r="O8">
-        <v>0.339878342391875</v>
+        <v>0.3260158715178649</v>
       </c>
       <c r="P8">
-        <v>0.339878342391875</v>
+        <v>0.3351809012869699</v>
       </c>
       <c r="Q8">
-        <v>18297.61515410876</v>
+        <v>22857.91933742349</v>
       </c>
       <c r="R8">
-        <v>18297.61515410876</v>
+        <v>205721.2740368115</v>
       </c>
       <c r="S8">
-        <v>0.2141122316616752</v>
+        <v>0.2089669978596496</v>
       </c>
       <c r="T8">
-        <v>0.2141122316616752</v>
+        <v>0.2247931989944202</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>391.450386706388</v>
+        <v>446.6683856666667</v>
       </c>
       <c r="H9">
-        <v>391.450386706388</v>
+        <v>1340.005157</v>
       </c>
       <c r="I9">
-        <v>0.6299672705088303</v>
+        <v>0.6409718547957218</v>
       </c>
       <c r="J9">
-        <v>0.6299672705088303</v>
+        <v>0.6706623143839581</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.5985642891658</v>
+        <v>22.19450366666666</v>
       </c>
       <c r="N9">
-        <v>20.5985642891658</v>
+        <v>66.58351099999999</v>
       </c>
       <c r="O9">
-        <v>0.149776155986781</v>
+        <v>0.1413945597650736</v>
       </c>
       <c r="P9">
-        <v>0.149776155986781</v>
+        <v>0.1453694746776606</v>
       </c>
       <c r="Q9">
-        <v>8063.315956590346</v>
+        <v>9913.583123462911</v>
       </c>
       <c r="R9">
-        <v>8063.315956590346</v>
+        <v>89222.24811116622</v>
       </c>
       <c r="S9">
-        <v>0.09435407617429725</v>
+        <v>0.09062993323064379</v>
       </c>
       <c r="T9">
-        <v>0.09435407617429725</v>
+        <v>0.09749382832810004</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>391.450386706388</v>
+        <v>446.6683856666667</v>
       </c>
       <c r="H10">
-        <v>391.450386706388</v>
+        <v>1340.005157</v>
       </c>
       <c r="I10">
-        <v>0.6299672705088303</v>
+        <v>0.6409718547957218</v>
       </c>
       <c r="J10">
-        <v>0.6299672705088303</v>
+        <v>0.6706623143839581</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.9151333062663</v>
+        <v>37.51216133333333</v>
       </c>
       <c r="N10">
-        <v>33.9151333062663</v>
+        <v>112.536484</v>
       </c>
       <c r="O10">
-        <v>0.2466035120255234</v>
+        <v>0.2389787857941174</v>
       </c>
       <c r="P10">
-        <v>0.2466035120255234</v>
+        <v>0.2456970098971044</v>
       </c>
       <c r="Q10">
-        <v>13276.09204793664</v>
+        <v>16755.49654562755</v>
       </c>
       <c r="R10">
-        <v>13276.09204793664</v>
+        <v>150799.468910648</v>
       </c>
       <c r="S10">
-        <v>0.1553521413686104</v>
+        <v>0.1531786755872849</v>
       </c>
       <c r="T10">
-        <v>0.1553521413686104</v>
+        <v>0.1647797252948103</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>391.450386706388</v>
+        <v>446.6683856666667</v>
       </c>
       <c r="H11">
-        <v>391.450386706388</v>
+        <v>1340.005157</v>
       </c>
       <c r="I11">
-        <v>0.6299672705088303</v>
+        <v>0.6409718547957218</v>
       </c>
       <c r="J11">
-        <v>0.6299672705088303</v>
+        <v>0.6706623143839581</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.2817264273563</v>
+        <v>12.8762265</v>
       </c>
       <c r="N11">
-        <v>10.2817264273563</v>
+        <v>25.752453</v>
       </c>
       <c r="O11">
-        <v>0.07476042696854827</v>
+        <v>0.08203059661736112</v>
       </c>
       <c r="P11">
-        <v>0.07476042696854827</v>
+        <v>0.05622443917490542</v>
       </c>
       <c r="Q11">
-        <v>4024.785785997913</v>
+        <v>5751.403304233354</v>
       </c>
       <c r="R11">
-        <v>4024.785785997913</v>
+        <v>34508.41982540012</v>
       </c>
       <c r="S11">
-        <v>0.0470966221194511</v>
+        <v>0.05257930366382962</v>
       </c>
       <c r="T11">
-        <v>0.0470966221194511</v>
+        <v>0.03770761250198214</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.297937132205239</v>
+        <v>0.4741663333333334</v>
       </c>
       <c r="H12">
-        <v>0.297937132205239</v>
+        <v>1.422499</v>
       </c>
       <c r="I12">
-        <v>0.000479474917722696</v>
+        <v>0.0006804315772309074</v>
       </c>
       <c r="J12">
-        <v>0.000479474917722696</v>
+        <v>0.0007119498507637953</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.9904444842906</v>
+        <v>33.211442</v>
       </c>
       <c r="N12">
-        <v>25.9904444842906</v>
+        <v>99.634326</v>
       </c>
       <c r="O12">
-        <v>0.1889815626272723</v>
+        <v>0.211580186305583</v>
       </c>
       <c r="P12">
-        <v>0.1889815626272723</v>
+        <v>0.2175281749633597</v>
       </c>
       <c r="Q12">
-        <v>7.743518494389012</v>
+        <v>15.74774767785267</v>
       </c>
       <c r="R12">
-        <v>7.743518494389012</v>
+        <v>141.729729100674</v>
       </c>
       <c r="S12">
-        <v>9.061191919181792E-05</v>
+        <v>0.0001439658398787171</v>
       </c>
       <c r="T12">
-        <v>9.061191919181792E-05</v>
+        <v>0.0001548691517020847</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.297937132205239</v>
+        <v>0.4741663333333334</v>
       </c>
       <c r="H13">
-        <v>0.297937132205239</v>
+        <v>1.422499</v>
       </c>
       <c r="I13">
-        <v>0.000479474917722696</v>
+        <v>0.0006804315772309074</v>
       </c>
       <c r="J13">
-        <v>0.000479474917722696</v>
+        <v>0.0007119498507637953</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>46.7431270360019</v>
+        <v>51.17424933333334</v>
       </c>
       <c r="N13">
-        <v>46.7431270360019</v>
+        <v>153.522748</v>
       </c>
       <c r="O13">
-        <v>0.339878342391875</v>
+        <v>0.3260158715178649</v>
       </c>
       <c r="P13">
-        <v>0.339878342391875</v>
+        <v>0.3351809012869699</v>
       </c>
       <c r="Q13">
-        <v>13.92651321941158</v>
+        <v>24.26510616747245</v>
       </c>
       <c r="R13">
-        <v>13.92651321941158</v>
+        <v>218.385955507252</v>
       </c>
       <c r="S13">
-        <v>0.0001629631402540706</v>
+        <v>0.0002218314936592097</v>
       </c>
       <c r="T13">
-        <v>0.0001629631402540706</v>
+        <v>0.0002386319926501326</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.297937132205239</v>
+        <v>0.4741663333333334</v>
       </c>
       <c r="H14">
-        <v>0.297937132205239</v>
+        <v>1.422499</v>
       </c>
       <c r="I14">
-        <v>0.000479474917722696</v>
+        <v>0.0006804315772309074</v>
       </c>
       <c r="J14">
-        <v>0.000479474917722696</v>
+        <v>0.0007119498507637953</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>20.5985642891658</v>
+        <v>22.19450366666666</v>
       </c>
       <c r="N14">
-        <v>20.5985642891658</v>
+        <v>66.58351099999999</v>
       </c>
       <c r="O14">
-        <v>0.149776155986781</v>
+        <v>0.1413945597650736</v>
       </c>
       <c r="P14">
-        <v>0.149776155986781</v>
+        <v>0.1453694746776606</v>
       </c>
       <c r="Q14">
-        <v>6.137077171859306</v>
+        <v>10.52388642377656</v>
       </c>
       <c r="R14">
-        <v>6.137077171859306</v>
+        <v>94.71497781398899</v>
       </c>
       <c r="S14">
-        <v>7.181391006858352E-05</v>
+        <v>9.620932331281886E-05</v>
       </c>
       <c r="T14">
-        <v>7.181391006858352E-05</v>
+        <v>0.0001034957758023718</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.297937132205239</v>
+        <v>0.4741663333333334</v>
       </c>
       <c r="H15">
-        <v>0.297937132205239</v>
+        <v>1.422499</v>
       </c>
       <c r="I15">
-        <v>0.000479474917722696</v>
+        <v>0.0006804315772309074</v>
       </c>
       <c r="J15">
-        <v>0.000479474917722696</v>
+        <v>0.0007119498507637953</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>33.9151333062663</v>
+        <v>37.51216133333333</v>
       </c>
       <c r="N15">
-        <v>33.9151333062663</v>
+        <v>112.536484</v>
       </c>
       <c r="O15">
-        <v>0.2466035120255234</v>
+        <v>0.2389787857941174</v>
       </c>
       <c r="P15">
-        <v>0.2466035120255234</v>
+        <v>0.2456970098971044</v>
       </c>
       <c r="Q15">
-        <v>10.10457755562737</v>
+        <v>17.78700399483511</v>
       </c>
       <c r="R15">
-        <v>10.10457755562737</v>
+        <v>160.083035953516</v>
       </c>
       <c r="S15">
-        <v>0.0001182401986385657</v>
+        <v>0.0001626087121426184</v>
       </c>
       <c r="T15">
-        <v>0.0001182401986385657</v>
+        <v>0.0001749239495293542</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.297937132205239</v>
+        <v>0.4741663333333334</v>
       </c>
       <c r="H16">
-        <v>0.297937132205239</v>
+        <v>1.422499</v>
       </c>
       <c r="I16">
-        <v>0.000479474917722696</v>
+        <v>0.0006804315772309074</v>
       </c>
       <c r="J16">
-        <v>0.000479474917722696</v>
+        <v>0.0007119498507637953</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.2817264273563</v>
+        <v>12.8762265</v>
       </c>
       <c r="N16">
-        <v>10.2817264273563</v>
+        <v>25.752453</v>
       </c>
       <c r="O16">
-        <v>0.07476042696854827</v>
+        <v>0.08203059661736112</v>
       </c>
       <c r="P16">
-        <v>0.07476042696854827</v>
+        <v>0.05622443917490542</v>
       </c>
       <c r="Q16">
-        <v>3.063308085885354</v>
+        <v>6.105473106674502</v>
       </c>
       <c r="R16">
-        <v>3.063308085885354</v>
+        <v>36.63283864004701</v>
       </c>
       <c r="S16">
-        <v>3.58457495696583E-05</v>
+        <v>5.581620823754336E-05</v>
       </c>
       <c r="T16">
-        <v>3.58457495696583E-05</v>
+        <v>4.0028981079852E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1467,49 +1467,49 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>81.157058922622</v>
+        <v>0.06163166666666667</v>
       </c>
       <c r="H17">
-        <v>81.157058922622</v>
+        <v>0.184895</v>
       </c>
       <c r="I17">
-        <v>0.1306073326997538</v>
+        <v>8.844181716268947E-05</v>
       </c>
       <c r="J17">
-        <v>0.1306073326997538</v>
+        <v>9.253853089314783E-05</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.9904444842906</v>
+        <v>33.211442</v>
       </c>
       <c r="N17">
-        <v>25.9904444842906</v>
+        <v>99.634326</v>
       </c>
       <c r="O17">
-        <v>0.1889815626272723</v>
+        <v>0.211580186305583</v>
       </c>
       <c r="P17">
-        <v>0.1889815626272723</v>
+        <v>0.2175281749633597</v>
       </c>
       <c r="Q17">
-        <v>2109.308034436708</v>
+        <v>2.046876522863333</v>
       </c>
       <c r="R17">
-        <v>2109.308034436708</v>
+        <v>18.42188870577</v>
       </c>
       <c r="S17">
-        <v>0.02468237782417951</v>
+        <v>1.871253615248614E-05</v>
       </c>
       <c r="T17">
-        <v>0.02468237782417951</v>
+        <v>2.012973773897693E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1529,49 +1529,49 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>81.157058922622</v>
+        <v>0.06163166666666667</v>
       </c>
       <c r="H18">
-        <v>81.157058922622</v>
+        <v>0.184895</v>
       </c>
       <c r="I18">
-        <v>0.1306073326997538</v>
+        <v>8.844181716268947E-05</v>
       </c>
       <c r="J18">
-        <v>0.1306073326997538</v>
+        <v>9.253853089314783E-05</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>46.7431270360019</v>
+        <v>51.17424933333334</v>
       </c>
       <c r="N18">
-        <v>46.7431270360019</v>
+        <v>153.522748</v>
       </c>
       <c r="O18">
-        <v>0.339878342391875</v>
+        <v>0.3260158715178649</v>
       </c>
       <c r="P18">
-        <v>0.339878342391875</v>
+        <v>0.3351809012869699</v>
       </c>
       <c r="Q18">
-        <v>3793.534715088412</v>
+        <v>3.153954276828889</v>
       </c>
       <c r="R18">
-        <v>3793.534715088412</v>
+        <v>28.38558849146</v>
       </c>
       <c r="S18">
-        <v>0.04439060374221645</v>
+        <v>2.883343610091787E-05</v>
       </c>
       <c r="T18">
-        <v>0.04439060374221645</v>
+        <v>3.10171481885374E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1591,49 +1591,49 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>81.157058922622</v>
+        <v>0.06163166666666667</v>
       </c>
       <c r="H19">
-        <v>81.157058922622</v>
+        <v>0.184895</v>
       </c>
       <c r="I19">
-        <v>0.1306073326997538</v>
+        <v>8.844181716268947E-05</v>
       </c>
       <c r="J19">
-        <v>0.1306073326997538</v>
+        <v>9.253853089314783E-05</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>20.5985642891658</v>
+        <v>22.19450366666666</v>
       </c>
       <c r="N19">
-        <v>20.5985642891658</v>
+        <v>66.58351099999999</v>
       </c>
       <c r="O19">
-        <v>0.149776155986781</v>
+        <v>0.1413945597650736</v>
       </c>
       <c r="P19">
-        <v>0.149776155986781</v>
+        <v>0.1453694746776606</v>
       </c>
       <c r="Q19">
-        <v>1671.718895737246</v>
+        <v>1.367884251816111</v>
       </c>
       <c r="R19">
-        <v>1671.718895737246</v>
+        <v>12.310958266345</v>
       </c>
       <c r="S19">
-        <v>0.01956186423545573</v>
+        <v>1.250519180254161E-05</v>
       </c>
       <c r="T19">
-        <v>0.01956186423545573</v>
+        <v>1.345227762337937E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>81.157058922622</v>
+        <v>0.06163166666666667</v>
       </c>
       <c r="H20">
-        <v>81.157058922622</v>
+        <v>0.184895</v>
       </c>
       <c r="I20">
-        <v>0.1306073326997538</v>
+        <v>8.844181716268947E-05</v>
       </c>
       <c r="J20">
-        <v>0.1306073326997538</v>
+        <v>9.253853089314783E-05</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>33.9151333062663</v>
+        <v>37.51216133333333</v>
       </c>
       <c r="N20">
-        <v>33.9151333062663</v>
+        <v>112.536484</v>
       </c>
       <c r="O20">
-        <v>0.2466035120255234</v>
+        <v>0.2389787857941174</v>
       </c>
       <c r="P20">
-        <v>0.2466035120255234</v>
+        <v>0.2456970098971044</v>
       </c>
       <c r="Q20">
-        <v>2752.452472105234</v>
+        <v>2.311937023242222</v>
       </c>
       <c r="R20">
-        <v>2752.452472105234</v>
+        <v>20.80743320918</v>
       </c>
       <c r="S20">
-        <v>0.03220822694004526</v>
+        <v>2.113571807896486E-05</v>
       </c>
       <c r="T20">
-        <v>0.03220822694004526</v>
+        <v>2.273644034071725E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.06163166666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.184895</v>
+      </c>
+      <c r="I21">
+        <v>8.844181716268947E-05</v>
+      </c>
+      <c r="J21">
+        <v>9.253853089314783E-05</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>12.8762265</v>
+      </c>
+      <c r="N21">
+        <v>25.752453</v>
+      </c>
+      <c r="O21">
+        <v>0.08203059661736112</v>
+      </c>
+      <c r="P21">
+        <v>0.05622443917490542</v>
+      </c>
+      <c r="Q21">
+        <v>0.7935832995725001</v>
+      </c>
+      <c r="R21">
+        <v>4.761499797435</v>
+      </c>
+      <c r="S21">
+        <v>7.254935027778986E-06</v>
+      </c>
+      <c r="T21">
+        <v>5.202927001536896E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>92.55087449999999</v>
+      </c>
+      <c r="H22">
+        <v>185.101749</v>
+      </c>
+      <c r="I22">
+        <v>0.1328110687813519</v>
+      </c>
+      <c r="J22">
+        <v>0.09264200718360256</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>33.211442</v>
+      </c>
+      <c r="N22">
+        <v>99.634326</v>
+      </c>
+      <c r="O22">
+        <v>0.211580186305583</v>
+      </c>
+      <c r="P22">
+        <v>0.2175281749633597</v>
+      </c>
+      <c r="Q22">
+        <v>3073.748000506028</v>
+      </c>
+      <c r="R22">
+        <v>18442.48800303617</v>
+      </c>
+      <c r="S22">
+        <v>0.02810019067620203</v>
+      </c>
+      <c r="T22">
+        <v>0.02015224674759152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>92.55087449999999</v>
+      </c>
+      <c r="H23">
+        <v>185.101749</v>
+      </c>
+      <c r="I23">
+        <v>0.1328110687813519</v>
+      </c>
+      <c r="J23">
+        <v>0.09264200718360256</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>51.17424933333334</v>
+      </c>
+      <c r="N23">
+        <v>153.522748</v>
+      </c>
+      <c r="O23">
+        <v>0.3260158715178649</v>
+      </c>
+      <c r="P23">
+        <v>0.3351809012869699</v>
+      </c>
+      <c r="Q23">
+        <v>4736.221527681042</v>
+      </c>
+      <c r="R23">
+        <v>28417.32916608625</v>
+      </c>
+      <c r="S23">
+        <v>0.04329851633597154</v>
+      </c>
+      <c r="T23">
+        <v>0.03105183146483385</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>92.55087449999999</v>
+      </c>
+      <c r="H24">
+        <v>185.101749</v>
+      </c>
+      <c r="I24">
+        <v>0.1328110687813519</v>
+      </c>
+      <c r="J24">
+        <v>0.09264200718360256</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>22.19450366666666</v>
+      </c>
+      <c r="N24">
+        <v>66.58351099999999</v>
+      </c>
+      <c r="O24">
+        <v>0.1413945597650736</v>
+      </c>
+      <c r="P24">
+        <v>0.1453694746776606</v>
+      </c>
+      <c r="Q24">
+        <v>2054.120723443456</v>
+      </c>
+      <c r="R24">
+        <v>12324.72434066074</v>
+      </c>
+      <c r="S24">
+        <v>0.01877876260226816</v>
+      </c>
+      <c r="T24">
+        <v>0.01346731991736436</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>81.157058922622</v>
-      </c>
-      <c r="H21">
-        <v>81.157058922622</v>
-      </c>
-      <c r="I21">
-        <v>0.1306073326997538</v>
-      </c>
-      <c r="J21">
-        <v>0.1306073326997538</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>10.2817264273563</v>
-      </c>
-      <c r="N21">
-        <v>10.2817264273563</v>
-      </c>
-      <c r="O21">
-        <v>0.07476042696854827</v>
-      </c>
-      <c r="P21">
-        <v>0.07476042696854827</v>
-      </c>
-      <c r="Q21">
-        <v>834.4346774912351</v>
-      </c>
-      <c r="R21">
-        <v>834.4346774912351</v>
-      </c>
-      <c r="S21">
-        <v>0.009764259957856829</v>
-      </c>
-      <c r="T21">
-        <v>0.009764259957856829</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>92.55087449999999</v>
+      </c>
+      <c r="H25">
+        <v>185.101749</v>
+      </c>
+      <c r="I25">
+        <v>0.1328110687813519</v>
+      </c>
+      <c r="J25">
+        <v>0.09264200718360256</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>37.51216133333333</v>
+      </c>
+      <c r="N25">
+        <v>112.536484</v>
+      </c>
+      <c r="O25">
+        <v>0.2389787857941174</v>
+      </c>
+      <c r="P25">
+        <v>0.2456970098971044</v>
+      </c>
+      <c r="Q25">
+        <v>3471.783335785085</v>
+      </c>
+      <c r="R25">
+        <v>20830.70001471051</v>
+      </c>
+      <c r="S25">
+        <v>0.03173902795738648</v>
+      </c>
+      <c r="T25">
+        <v>0.02276186415587722</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>92.55087449999999</v>
+      </c>
+      <c r="H26">
+        <v>185.101749</v>
+      </c>
+      <c r="I26">
+        <v>0.1328110687813519</v>
+      </c>
+      <c r="J26">
+        <v>0.09264200718360256</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>12.8762265</v>
+      </c>
+      <c r="N26">
+        <v>25.752453</v>
+      </c>
+      <c r="O26">
+        <v>0.08203059661736112</v>
+      </c>
+      <c r="P26">
+        <v>0.05622443917490542</v>
+      </c>
+      <c r="Q26">
+        <v>1191.706022835074</v>
+      </c>
+      <c r="R26">
+        <v>4766.824091340297</v>
+      </c>
+      <c r="S26">
+        <v>0.01089457120952368</v>
+      </c>
+      <c r="T26">
+        <v>0.005208744897935613</v>
       </c>
     </row>
   </sheetData>
